--- a/ferramentas_e_planilhas/empresograma.xlsx
+++ b/ferramentas_e_planilhas/empresograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1649d3a5a17b4d2c/Documents/GitHub/rafaguipe.github.io/ferramentas_e_planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="298" documentId="8_{44954D39-AB92-447E-9731-03ACEF895325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{588AD751-7812-4833-A67C-29CFA28E2C12}"/>
+  <xr:revisionPtr revIDLastSave="303" documentId="8_{44954D39-AB92-447E-9731-03ACEF895325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9586FCA8-E303-45D0-8429-16B51B1A3601}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,17 @@
     <sheet name="4. Indicadores" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'2. Preenchimento'!$F$17:$F$23</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'2. Preenchimento'!$Q$17:$Q$23</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'2. Preenchimento'!$Q$31:$Q$37</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'2. Preenchimento'!$F$10:$F$16</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'2. Preenchimento'!$S$10:$S$16</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'2. Preenchimento'!$F$24:$F$30</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'2. Preenchimento'!$Q$24:$Q$30</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'2. Preenchimento'!$F$10:$F$37</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'2. Preenchimento'!$S$10:$S$37</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'2. Preenchimento'!$S$9</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'2. Preenchimento'!$F$31:$F$37</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'2. Preenchimento'!$F$31:$F$37</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'2. Preenchimento'!$Q$31:$Q$37</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'2. Preenchimento'!$Q$24:$Q$30</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'2. Preenchimento'!$F$10:$F$37</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'2. Preenchimento'!$S$10:$S$37</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'2. Preenchimento'!$S$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'2. Preenchimento'!$F$10:$F$16</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'2. Preenchimento'!$S$10:$S$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'2. Preenchimento'!$F$17:$F$23</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'2. Preenchimento'!$Q$17:$Q$23</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'2. Preenchimento'!$F$24:$F$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
   <si>
     <t>Início</t>
   </si>
@@ -408,6 +408,50 @@
   <si>
     <t xml:space="preserve">Autores: Conter, Adélio; Simões, Ana Paula; Barbaresco, Fernando; Trintinália, José Carlos; Vicenzi, Luciano; David, Marcia. Empresograma: Critérios para Avaliação de Empresas Conscienciocêntricas (Portuguese Edition) (p. 11). Epígrafe. Edição do Kindle. </t>
   </si>
+  <si>
+    <t>Licenças da planilha</t>
+  </si>
+  <si>
+    <r>
+      <t>Planilha do Empresograma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>© 2024 by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD14500"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rafael Guimarães Pereira </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>is licensed under </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD14500"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>CC BY-NC-SA 4.0 </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -416,7 +460,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -477,8 +521,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFD14500"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +592,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,7 +783,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -881,6 +943,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -899,10 +965,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -1234,10 +1299,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1275,7 +1340,7 @@
         <cx:series layoutId="treemap" uniqueId="{13C9D725-539C-4DFD-A30D-08896F75E4B8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Média da Folha</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1299,10 +1364,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1358,10 +1423,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1417,10 +1482,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1476,10 +1541,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5136,6 +5201,207 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2049" name="AutoShape 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A27719-FDA5-F1DE-1CEC-9BF622ACA596}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4705350"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2050" name="AutoShape 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A5AC462-8BD0-4BCF-FA6D-A0544B4506E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="196850" y="4705350"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2051" name="AutoShape 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F1A875D-F1B3-AD61-7597-30D0CE1639D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="393700" y="4705350"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2052" name="AutoShape 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3020D80-89DA-1F10-901E-0D6A55E25EF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="4705350"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5872,7 +6138,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5916,7 +6182,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5938,10 +6204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACE7683-1606-41A3-B44B-B6072E58F2FE}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6252,88 +6518,140 @@
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
     </row>
     <row r="20" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6343,6 +6661,7 @@
     <hyperlink ref="A16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6488,32 +6807,32 @@
       <c r="Q5" s="36"/>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="57"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="59"/>
     </row>
     <row r="9" spans="2:34" s="6" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
@@ -6572,7 +6891,7 @@
       </c>
     </row>
     <row r="10" spans="2:34" ht="31" x14ac:dyDescent="0.35">
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="60" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -6631,7 +6950,7 @@
       </c>
     </row>
     <row r="11" spans="2:34" ht="31" x14ac:dyDescent="0.35">
-      <c r="B11" s="58"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="16" t="s">
         <v>43</v>
       </c>
@@ -6688,7 +7007,7 @@
       </c>
     </row>
     <row r="12" spans="2:34" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="58"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="16" t="s">
         <v>42</v>
       </c>
@@ -6745,7 +7064,7 @@
       </c>
     </row>
     <row r="13" spans="2:34" ht="31" x14ac:dyDescent="0.35">
-      <c r="B13" s="58"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="16" t="s">
         <v>41</v>
       </c>
@@ -6802,7 +7121,7 @@
       </c>
     </row>
     <row r="14" spans="2:34" ht="31" x14ac:dyDescent="0.35">
-      <c r="B14" s="58"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="16" t="s">
         <v>45</v>
       </c>
@@ -6859,7 +7178,7 @@
       </c>
     </row>
     <row r="15" spans="2:34" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="58"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="16" t="s">
         <v>46</v>
       </c>
@@ -6916,7 +7235,7 @@
       </c>
     </row>
     <row r="16" spans="2:34" ht="31" x14ac:dyDescent="0.35">
-      <c r="B16" s="58"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="16" t="s">
         <v>47</v>
       </c>
@@ -6973,7 +7292,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="31" x14ac:dyDescent="0.35">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="55" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -7032,7 +7351,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="62" x14ac:dyDescent="0.35">
-      <c r="B18" s="53"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="19" t="s">
         <v>76</v>
       </c>
@@ -7089,7 +7408,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="62" x14ac:dyDescent="0.35">
-      <c r="B19" s="53"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="19" t="s">
         <v>77</v>
       </c>
@@ -7146,7 +7465,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" ht="31" x14ac:dyDescent="0.35">
-      <c r="B20" s="53"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="19" t="s">
         <v>78</v>
       </c>
@@ -7203,7 +7522,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="53"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="19" t="s">
         <v>79</v>
       </c>
@@ -7260,7 +7579,7 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="62" x14ac:dyDescent="0.35">
-      <c r="B22" s="53"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="19" t="s">
         <v>80</v>
       </c>
@@ -7317,7 +7636,7 @@
       </c>
     </row>
     <row r="23" spans="2:19" ht="31" x14ac:dyDescent="0.35">
-      <c r="B23" s="53"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="19" t="s">
         <v>81</v>
       </c>
@@ -7374,7 +7693,7 @@
       </c>
     </row>
     <row r="24" spans="2:19" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="60" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -7433,7 +7752,7 @@
       </c>
     </row>
     <row r="25" spans="2:19" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="58"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="16" t="s">
         <v>83</v>
       </c>
@@ -7490,7 +7809,7 @@
       </c>
     </row>
     <row r="26" spans="2:19" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="58"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="16" t="s">
         <v>84</v>
       </c>
@@ -7547,7 +7866,7 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="31" x14ac:dyDescent="0.35">
-      <c r="B27" s="58"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="16" t="s">
         <v>85</v>
       </c>
@@ -7604,7 +7923,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="31" x14ac:dyDescent="0.35">
-      <c r="B28" s="58"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="16" t="s">
         <v>86</v>
       </c>
@@ -7661,7 +7980,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="58"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="16" t="s">
         <v>87</v>
       </c>
@@ -7718,7 +8037,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="31" x14ac:dyDescent="0.35">
-      <c r="B30" s="58"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="16" t="s">
         <v>88</v>
       </c>
@@ -7775,7 +8094,7 @@
       </c>
     </row>
     <row r="31" spans="2:19" ht="31" x14ac:dyDescent="0.35">
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="19" t="s">
@@ -7834,7 +8153,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" ht="62" x14ac:dyDescent="0.35">
-      <c r="B32" s="53"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="19" t="s">
         <v>90</v>
       </c>
@@ -7891,7 +8210,7 @@
       </c>
     </row>
     <row r="33" spans="2:19" ht="62" x14ac:dyDescent="0.35">
-      <c r="B33" s="53"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="19" t="s">
         <v>91</v>
       </c>
@@ -7948,7 +8267,7 @@
       </c>
     </row>
     <row r="34" spans="2:19" ht="31" x14ac:dyDescent="0.35">
-      <c r="B34" s="53"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="19" t="s">
         <v>92</v>
       </c>
@@ -8005,7 +8324,7 @@
       </c>
     </row>
     <row r="35" spans="2:19" ht="62" x14ac:dyDescent="0.35">
-      <c r="B35" s="53"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="19" t="s">
         <v>93</v>
       </c>
@@ -8062,7 +8381,7 @@
       </c>
     </row>
     <row r="36" spans="2:19" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="53"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="19" t="s">
         <v>94</v>
       </c>
@@ -8119,7 +8438,7 @@
       </c>
     </row>
     <row r="37" spans="2:19" ht="31" x14ac:dyDescent="0.35">
-      <c r="B37" s="53"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="19" t="s">
         <v>95</v>
       </c>
